--- a/maxim/prim.xlsx
+++ b/maxim/prim.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -351,7 +351,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>0.009518518253248572</v>
+        <v>1.51600000000307E-06</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01089824040730795</v>
+        <v>3.229000000000149E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.01103569244851872</v>
+        <v>6.625000000003989E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.009093306556580569</v>
+        <v>8.345000000004044E-06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.009484464564221974</v>
+        <v>1.412800000000547E-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.009703346535011582</v>
+        <v>2.186900000000214E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.008377372225125636</v>
+        <v>2.603299999999531E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.009984955191612256</v>
+        <v>3.360499999999655E-05</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.01046165954775927</v>
+        <v>4.309599999999802E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.008294536901074788</v>
+        <v>5.346100000000242E-05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.01111635091353437</v>
+        <v>6.650500000000004E-05</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.01011119683583578</v>
+        <v>8.129600000000071E-05</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.009171485078745883</v>
+        <v>9.935200000001143E-05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.008514391857644788</v>
+        <v>0.0001298319999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.01078879784564584</v>
+        <v>0.0001765130000000026</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.01080492918307966</v>
+        <v>0.0001626100000000008</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.01016118309714578</v>
+        <v>0.0001962829999999927</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.008496785163879401</v>
+        <v>0.0002264379999999866</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.01062220590455193</v>
+        <v>0.0002671630000000014</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.01053738386734672</v>
+        <v>0.0003353770000000011</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.01116356934819904</v>
+        <v>0.0003904960000000024</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01144033898698524</v>
+        <v>0.0004021109999999895</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01266742881975677</v>
+        <v>0.0004315279999999833</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0105193008076061</v>
+        <v>0.0004904039999999909</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.01133544299067284</v>
+        <v>0.0005373439999999973</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.01055792594442563</v>
+        <v>0.0006005580000000288</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.0107510675986608</v>
+        <v>0.0006624420000000075</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.01023190983554774</v>
+        <v>0.0007485959999999814</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.01108623445034028</v>
+        <v>0.0008059189999999905</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.01075463527586403</v>
+        <v>0.0008851300000000029</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0116256170105516</v>
+        <v>0.0009681699999999883</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.01291040756084302</v>
+        <v>0.001059516999999976</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.01481402033851261</v>
+        <v>0.001159679999999987</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.01003942812903454</v>
+        <v>0.001271275000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.01174797525211257</v>
+        <v>0.001380885000000065</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.01474936803181967</v>
+        <v>0.001485630000000055</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.01089964707692465</v>
+        <v>0.001647255000000012</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.009946594518773699</v>
+        <v>0.001724023999999904</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01265567237255621</v>
+        <v>0.001885678999999918</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.01347300866070917</v>
+        <v>0.002002564999999983</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.01368570608251236</v>
+        <v>0.002151498000000025</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.01383625356162468</v>
+        <v>0.002317986999999917</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0.01272418087926406</v>
+        <v>0.002467299000000018</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01231079101562501</v>
+        <v>0.002625160000000051</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.01276402966729527</v>
+        <v>0.002840406000000044</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0.01479129110063827</v>
+        <v>0.002982415000000032</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.01562286163198538</v>
+        <v>0.003194862000000143</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.01308179261549465</v>
+        <v>0.003353946999999771</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01554967596175824</v>
+        <v>0.003552534999999892</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0.01960428101675852</v>
+        <v>0.003782733999999835</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0.01887480491815613</v>
+        <v>0.003993170999999798</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.01893229214650282</v>
+        <v>0.004207879000000219</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.02128308469598944</v>
+        <v>0.004485206999999889</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.02262601268534758</v>
+        <v>0.004673661999999936</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.0247864148833535</v>
+        <v>0.00496358700000009</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.02543928164702194</v>
+        <v>0.005249384999999975</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.02749821532006355</v>
+        <v>0.005498533999999822</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0288753976213171</v>
+        <v>0.005744396000000123</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0.02823422076338425</v>
+        <v>0.006066091999999657</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0.02904833812339631</v>
+        <v>0.006356427999999852</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.02862039729952809</v>
+        <v>0.006740721000000462</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.03159504413604734</v>
+        <v>0.006994923000000383</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.03229078781314011</v>
+        <v>0.007387583999999734</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.03397072592089249</v>
+        <v>0.007709647999999803</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0.03193030655384062</v>
+        <v>0.008044073000000651</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.03685367584228512</v>
+        <v>0.008403324999999882</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.03748616172421358</v>
+        <v>0.008776882999999173</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.03911509513854978</v>
+        <v>0.009141357000000312</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0.04116200606028234</v>
+        <v>0.009577582999999662</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0.03948233777826479</v>
+        <v>0.009944849999999832</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>0.04297648014560818</v>
+        <v>0.01033772800000037</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0.04421983808279032</v>
+        <v>0.01077311799999961</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.04626203565036547</v>
+        <v>0.01113743600000006</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.0460181169731672</v>
+        <v>0.01168248599999984</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.04763602188655305</v>
+        <v>0.01220733699999968</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.04995893116655016</v>
+        <v>0.01262919599999933</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>0.05620173726763039</v>
+        <v>0.01338815499999839</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.05590064866202212</v>
+        <v>0.01370782400000081</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.05334555777636438</v>
+        <v>0.01411592599999722</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.05745934661553825</v>
+        <v>0.01459705499999984</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.06126511026831229</v>
+        <v>0.01520413899999966</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.06064629952112829</v>
+        <v>0.01572227900000144</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.06199569882086983</v>
+        <v>0.01628331800000069</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.06570540614750069</v>
+        <v>0.01679100299999959</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0.06979193190733586</v>
+        <v>0.01753284699999881</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0694901821225188</v>
+        <v>0.01801289600000075</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0.07167901141302921</v>
+        <v>0.01863099100000142</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.07216095518558577</v>
+        <v>0.0191317289999995</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.07772689098265108</v>
+        <v>0.01983066099999945</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.08299502742533775</v>
+        <v>0.02055516100000034</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.08189233433116565</v>
+        <v>0.0211042789999982</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.08127734520856067</v>
+        <v>0.02164297799999645</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.08647540784349626</v>
+        <v>0.02239272500000197</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0.08748760980273056</v>
+        <v>0.023158583000004</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.09203073779741922</v>
+        <v>0.02402209499999969</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0.09251750599254265</v>
+        <v>0.02475121399999693</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.09210879170164769</v>
+        <v>0.02558456100000114</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0973190514937691</v>
+        <v>0.02633432299999754</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,415 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.09758324093288842</v>
+        <v>0.0269292640000009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.02776790799999674</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.02882529799999816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.0295231769999981</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.03044995700000186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.03131283300000405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.03190363300000058</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.03280301000000008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.03435964499999386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.03455377999999201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.03609320399999774</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.0365816169999971</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.03741274199999793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.03839212699999962</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>0.03946724599999698</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>0.04044282900001121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>0.04142982399999482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0.04254910600000244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.04441695100000629</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.0447409679999987</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.04598123499999815</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.04697458100000176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.04823857399999383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.04941236399999752</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.05069962799999985</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.05188234900001135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.05347264900000027</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.05429099800000358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>0.05559818899999072</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0.05683475099999441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0.05812374499999123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>0.05950520699999742</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>0.06098998099999335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0.06222688899998957</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0.06354019500000277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>0.06520878499999298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>0.06691130300001305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>0.06897502700000131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.07082684499998322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.07201997499998924</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.0736080120000156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.07511116899999934</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.07738607899998669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>0.07857912799998758</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0.08003628600001775</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0.08180686600001991</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0.08358140300000741</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0.08528367399999752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>0.08682139700000334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0.08855718700001944</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>0.09045313799999349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0.09168606699997327</v>
       </c>
     </row>
   </sheetData>
